--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Proc-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Proc-Procr.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.442132</v>
+        <v>1.979605666666667</v>
       </c>
       <c r="N2">
-        <v>16.326396</v>
+        <v>5.938817</v>
       </c>
       <c r="O2">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
       <c r="P2">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
       <c r="Q2">
-        <v>0.9668709396480001</v>
+        <v>0.3517046611626667</v>
       </c>
       <c r="R2">
-        <v>8.701838456832</v>
+        <v>3.165341950464</v>
       </c>
       <c r="S2">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
       <c r="T2">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.37791666666666</v>
+        <v>16.37791666666667</v>
       </c>
       <c r="N3">
-        <v>49.13374999999999</v>
+        <v>49.13375000000001</v>
       </c>
       <c r="O3">
-        <v>0.5863845759091072</v>
+        <v>0.4852734597612733</v>
       </c>
       <c r="P3">
-        <v>0.5863845759091071</v>
+        <v>0.4852734597612734</v>
       </c>
       <c r="Q3">
-        <v>2.909766186666666</v>
+        <v>2.909766186666667</v>
       </c>
       <c r="R3">
         <v>26.18789568</v>
       </c>
       <c r="S3">
-        <v>0.5863845759091072</v>
+        <v>0.4852734597612733</v>
       </c>
       <c r="T3">
-        <v>0.5863845759091071</v>
+        <v>0.4852734597612734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.110284666666666</v>
+        <v>15.39234866666667</v>
       </c>
       <c r="N4">
-        <v>18.330854</v>
+        <v>46.177046</v>
       </c>
       <c r="O4">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
       <c r="P4">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
       <c r="Q4">
-        <v>1.085577615018667</v>
+        <v>2.734666233514667</v>
       </c>
       <c r="R4">
-        <v>9.770198535167999</v>
+        <v>24.611996101632</v>
       </c>
       <c r="S4">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
       <c r="T4">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
     </row>
   </sheetData>
